--- a/xls/bodyPowerConfig.xlsx
+++ b/xls/bodyPowerConfig.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="6750" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="@体力配置" sheetId="1" r:id="rId1"/>
-    <sheet name="代对表=" sheetId="2" r:id="rId2"/>
+    <sheet name="@美元配置" sheetId="3" r:id="rId2"/>
+    <sheet name="代对表=" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +91,22 @@
   </si>
   <si>
     <t>singleBuyPowerNeedMoney[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美元配置:euroConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>singleBuyNum[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>singleBuyNeedMoney[.][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单次购买的美元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -620,10 +637,85 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2"/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>10000</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -636,6 +728,11 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
